--- a/tablasResultados.xlsx
+++ b/tablasResultados.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>RAM</t>
   </si>
@@ -68,6 +68,60 @@
   </si>
   <si>
     <t>CPU %2</t>
+  </si>
+  <si>
+    <t>0.07179644389944817</t>
+  </si>
+  <si>
+    <t>0.04414527238572319</t>
+  </si>
+  <si>
+    <t>0.042830994508846865</t>
+  </si>
+  <si>
+    <t>0.05379785793426073</t>
+  </si>
+  <si>
+    <t>0.03125</t>
+  </si>
+  <si>
+    <t>0.023939934765216275</t>
+  </si>
+  <si>
+    <t>0.027882070536098924</t>
+  </si>
+  <si>
+    <t>TIME/ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12095.738ms</t>
+  </si>
+  <si>
+    <t>0.020347943689678516</t>
+  </si>
+  <si>
+    <t>12139.102ms</t>
+  </si>
+  <si>
+    <t>0.03565500706952729</t>
+  </si>
+  <si>
+    <t>0.028852702619032833</t>
+  </si>
+  <si>
+    <t>12661.537ms</t>
+  </si>
+  <si>
+    <t>0.055406668744157006</t>
+  </si>
+  <si>
+    <t>12400.420ms</t>
+  </si>
+  <si>
+    <t>12438.353ms</t>
+  </si>
+  <si>
+    <t>0.025202852225227446</t>
   </si>
 </sst>
 </file>
@@ -254,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -271,11 +325,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -534,6 +632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1257,6 +1356,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1367,6 +1467,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2090,6 +2191,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2201,6 +2303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2593,6 +2696,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2704,6 +2808,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3096,6 +3201,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5712,7 +5818,7 @@
     <tableColumn id="3" name="CPU %2"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="8" name="Columna1" dataDxfId="15">
+    <tableColumn id="8" name="Columna1" dataDxfId="19">
       <calculatedColumnFormula>Tabla1[[#This Row],[RAM final]]-Tabla1[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="time Ejec"/>
@@ -5726,7 +5832,7 @@
   <autoFilter ref="K4:N24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ejecución"/>
-    <tableColumn id="8" name="RAM" dataDxfId="14"/>
+    <tableColumn id="8" name="RAM" dataDxfId="18"/>
     <tableColumn id="9" name="CPU %"/>
     <tableColumn id="6" name="Time"/>
   </tableColumns>
@@ -5735,20 +5841,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="K26:N46"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="9"/>
-    <tableColumn id="2" name="RAM USED" dataDxfId="8"/>
-    <tableColumn id="3" name="CPU %" dataDxfId="7"/>
-    <tableColumn id="4" name="TIME/s" dataDxfId="6"/>
+    <tableColumn id="1" name="#" dataDxfId="13"/>
+    <tableColumn id="2" name="RAM USED" dataDxfId="12"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="11"/>
+    <tableColumn id="4" name="TIME/s" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B49:H69"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -5766,7 +5872,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B72:H92"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -5778,6 +5884,23 @@
       <calculatedColumnFormula>F73-E73</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="TIME/s"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="B95:G115"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="3" name="CPU %"/>
+    <tableColumn id="4" name="RAM Inicial"/>
+    <tableColumn id="5" name="RAM final"/>
+    <tableColumn id="6" name="RAM USED" dataDxfId="0">
+      <calculatedColumnFormula>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="TIME/ms"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6165,15 +6288,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N92"/>
+  <dimension ref="B4:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="S68" sqref="S68"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
@@ -9075,15 +9200,361 @@
         <v>5</v>
       </c>
     </row>
+    <row r="95" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>16154025984</v>
+      </c>
+      <c r="E96">
+        <v>16382185472</v>
+      </c>
+      <c r="F96">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>228159488</v>
+      </c>
+      <c r="G96" s="16">
+        <v>12179225</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>16202948608</v>
+      </c>
+      <c r="E97">
+        <v>16345391104</v>
+      </c>
+      <c r="F97">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>142442496</v>
+      </c>
+      <c r="G97" s="16">
+        <v>12126218</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>16171728896</v>
+      </c>
+      <c r="E98">
+        <v>16339329024</v>
+      </c>
+      <c r="F98">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>167600128</v>
+      </c>
+      <c r="G98" s="16">
+        <v>12104940</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>16151252992</v>
+      </c>
+      <c r="E99">
+        <v>16396800000</v>
+      </c>
+      <c r="F99">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>245547008</v>
+      </c>
+      <c r="G99" s="16">
+        <v>12050825</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>16191029248</v>
+      </c>
+      <c r="E100" s="17">
+        <v>16359321600</v>
+      </c>
+      <c r="F100">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>168292352</v>
+      </c>
+      <c r="G100" s="16">
+        <v>12132151</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>16179949568</v>
+      </c>
+      <c r="E101">
+        <v>16350093312</v>
+      </c>
+      <c r="F101">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>170143744</v>
+      </c>
+      <c r="G101" s="16">
+        <v>12172336</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>16169590784</v>
+      </c>
+      <c r="E102">
+        <v>16307859456</v>
+      </c>
+      <c r="F102">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>138268672</v>
+      </c>
+      <c r="G102" s="16">
+        <v>12053261</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>16132874240</v>
+      </c>
+      <c r="E103">
+        <v>16318742528</v>
+      </c>
+      <c r="F103">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>185868288</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>16147640320</v>
+      </c>
+      <c r="E104">
+        <v>16313278464</v>
+      </c>
+      <c r="F104">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>165638144</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>16137093120</v>
+      </c>
+      <c r="E105" s="17">
+        <v>16308903936</v>
+      </c>
+      <c r="F105">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>171810816</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>16164528128</v>
+      </c>
+      <c r="E106">
+        <v>16294195200</v>
+      </c>
+      <c r="F106">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>129667072</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>16115073024</v>
+      </c>
+      <c r="E107">
+        <v>16320966656</v>
+      </c>
+      <c r="F107">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>205893632</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>15</v>
+      </c>
+      <c r="F110">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>17</v>
+      </c>
+      <c r="F112">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>19</v>
+      </c>
+      <c r="F114">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="5">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tablasResultados.xlsx
+++ b/tablasResultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8568" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11256" windowHeight="3576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>RAM</t>
   </si>
@@ -70,64 +70,22 @@
     <t>CPU %2</t>
   </si>
   <si>
-    <t>0.07179644389944817</t>
-  </si>
-  <si>
-    <t>0.04414527238572319</t>
-  </si>
-  <si>
-    <t>0.042830994508846865</t>
-  </si>
-  <si>
-    <t>0.05379785793426073</t>
-  </si>
-  <si>
-    <t>0.03125</t>
-  </si>
-  <si>
-    <t>0.023939934765216275</t>
-  </si>
-  <si>
-    <t>0.027882070536098924</t>
-  </si>
-  <si>
     <t>TIME/ms</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12095.738ms</t>
+    <t>CPU</t>
   </si>
   <si>
-    <t>0.020347943689678516</t>
-  </si>
-  <si>
-    <t>12139.102ms</t>
-  </si>
-  <si>
-    <t>0.03565500706952729</t>
-  </si>
-  <si>
-    <t>0.028852702619032833</t>
-  </si>
-  <si>
-    <t>12661.537ms</t>
-  </si>
-  <si>
-    <t>0.055406668744157006</t>
-  </si>
-  <si>
-    <t>12400.420ms</t>
-  </si>
-  <si>
-    <t>12438.353ms</t>
-  </si>
-  <si>
-    <t>0.025202852225227446</t>
+    <t>TIME/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -329,11 +287,305 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3268,6 +3520,1757 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Puppeter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Headless</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$96:$L$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.1796443899448104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.41452723857231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2830994508846798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3797857934260698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.39399347652162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7882070536098902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0347943689678498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.56550070695272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8852702619032802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5406668744156997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5202852225227401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1936689930209301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1029330381848399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.58016955399926</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4135601547626302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6287855135810201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.23903549240327</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8088506453595601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9372481992430699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C116-4472-8944-4FF9B0D60017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIME/S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$96:$M$115</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.179225000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.126218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.104939999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.050825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.132151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.172336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.053260999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.095738000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.139101999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.661536999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.40042</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.438352999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.621905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.482345</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.423660999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.244723</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.418507</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.365284000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.403503000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.386008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C116-4472-8944-4FF9B0D60017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="622775775"/>
+        <c:axId val="622770367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="622775775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622770367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622770367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622775775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Puppeteer Headless</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RAM USED MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM USED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$96:$N$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>217.58984375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.84375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.8359375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.171875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.49609375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.26171875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.86328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177.2578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.96484375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163.8515625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.66015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>196.35546875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160.69921875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167.62890625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.671875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.8515625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164.1015625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.86328125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175.1171875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>156.66796875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-106D-4839-BA78-685DFB529060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="769296943"/>
+        <c:axId val="769297359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="769296943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769297359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="769297359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769296943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Puppeteer Headful</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$119:$L$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.7239263803680895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6081612586037402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9394405164463606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7498441979309387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.071050171392951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8860090897924104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3218984384605896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.11868578108656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7944464921980501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4075277386133696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5270784723075002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4943702701039703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8864459866118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8048902195608698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2081532970129603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5637215611320001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5403181568842603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6749999999999901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7147165630577899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9453280318091402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-272A-40AC-B017-28DC418BA0C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIME/S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$119:$M$138</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16.028258999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.822020999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.933604000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.958665999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.982647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.015893999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.738066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.761585999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.888481000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.635262000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.736737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.668773</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.591545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.166370000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.933721999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.944933000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.919359</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.799184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.718821999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.044606000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-272A-40AC-B017-28DC418BA0C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="630288575"/>
+        <c:axId val="630276095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="630288575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630276095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630276095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630288575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Puppeteer Headful</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>RAM USED MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM USED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$119:$N$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>272.71484375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249.49609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229.57421875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.95703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246.4921875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263.2578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.61328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.6328125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>248.4765625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262.67578125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>266.55859375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>255.296875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>276.04296875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>275.0859375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262.1875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274.4140625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>265.55859375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>245.203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00BE-4981-A19A-A230F9834AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="622702543"/>
+        <c:axId val="622707119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="622702543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622707119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622707119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622702543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3428,6 +5431,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4964,6 +7127,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5583,6 +9758,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5818,7 +10113,7 @@
     <tableColumn id="3" name="CPU %2"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="8" name="Columna1" dataDxfId="19">
+    <tableColumn id="8" name="Columna1" dataDxfId="39">
       <calculatedColumnFormula>Tabla1[[#This Row],[RAM final]]-Tabla1[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="time Ejec"/>
@@ -5832,7 +10127,7 @@
   <autoFilter ref="K4:N24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ejecución"/>
-    <tableColumn id="8" name="RAM" dataDxfId="18"/>
+    <tableColumn id="8" name="RAM" dataDxfId="38"/>
     <tableColumn id="9" name="CPU %"/>
     <tableColumn id="6" name="Time"/>
   </tableColumns>
@@ -5841,20 +10136,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="K26:N46"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="13"/>
-    <tableColumn id="2" name="RAM USED" dataDxfId="12"/>
-    <tableColumn id="3" name="CPU %" dataDxfId="11"/>
-    <tableColumn id="4" name="TIME/s" dataDxfId="10"/>
+    <tableColumn id="1" name="#" dataDxfId="33"/>
+    <tableColumn id="2" name="RAM USED" dataDxfId="32"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="31"/>
+    <tableColumn id="4" name="TIME/s" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="B49:H69"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -5872,7 +10167,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="B72:H92"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -5890,17 +10185,72 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
   <autoFilter ref="B95:G115"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="3" name="CPU"/>
+    <tableColumn id="4" name="RAM Inicial"/>
+    <tableColumn id="5" name="RAM final"/>
+    <tableColumn id="6" name="RAM USED" dataDxfId="20">
+      <calculatedColumnFormula>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="TIME/ms"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla578" displayName="Tabla578" ref="B118:G138" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="B118:G138"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
     <tableColumn id="3" name="CPU %"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="6" name="RAM USED" dataDxfId="0">
-      <calculatedColumnFormula>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
+    <tableColumn id="6" name="RAM USED" dataDxfId="8">
+      <calculatedColumnFormula>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="TIME/ms"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="K95:N115" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="K95:N115"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="#" dataDxfId="12"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="11">
+      <calculatedColumnFormula>Tabla57[[#This Row],[CPU]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="TIME/S" dataDxfId="10">
+      <calculatedColumnFormula>Tabla57[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="RAM USED" dataDxfId="9">
+      <calculatedColumnFormula>Tabla57[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="K118:N138" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="K118:N138"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="#" dataDxfId="3"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="2">
+      <calculatedColumnFormula>Tabla578[[#This Row],[CPU %]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="TIME/S" dataDxfId="1">
+      <calculatedColumnFormula>Tabla578[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="RAM USED" dataDxfId="0">
+      <calculatedColumnFormula>Tabla578[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6288,10 +10638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N115"/>
+  <dimension ref="B4:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="H93" workbookViewId="0">
+      <selection activeCell="X113" sqref="X113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6300,7 +10650,7 @@
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="12" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -8804,7 +13154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>9</v>
       </c>
@@ -8837,7 +13187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>10</v>
       </c>
@@ -8870,7 +13220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>11</v>
       </c>
@@ -8903,7 +13253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>12</v>
       </c>
@@ -8936,7 +13286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>13</v>
       </c>
@@ -8969,7 +13319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>14</v>
       </c>
@@ -9002,7 +13352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>15</v>
       </c>
@@ -9035,7 +13385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>16</v>
       </c>
@@ -9068,7 +13418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>17</v>
       </c>
@@ -9101,7 +13451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>18</v>
       </c>
@@ -9134,7 +13484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>19</v>
       </c>
@@ -9167,7 +13517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>20</v>
       </c>
@@ -9200,12 +13550,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>5</v>
@@ -9217,15 +13567,27 @@
         <v>8</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M95" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N95" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" t="s">
-        <v>13</v>
+      <c r="C96">
+        <v>7.1796443899448101E-2</v>
       </c>
       <c r="D96">
         <v>16154025984</v>
@@ -9240,13 +13602,28 @@
       <c r="G96" s="16">
         <v>12179225</v>
       </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>7.1796443899448104</v>
+      </c>
+      <c r="M96" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.179225000000001</v>
+      </c>
+      <c r="N96" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>217.58984375</v>
+      </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2</v>
       </c>
-      <c r="C97" t="s">
-        <v>14</v>
+      <c r="C97">
+        <v>4.4145272385723099E-2</v>
       </c>
       <c r="D97">
         <v>16202948608</v>
@@ -9261,13 +13638,28 @@
       <c r="G97" s="16">
         <v>12126218</v>
       </c>
+      <c r="K97" s="3">
+        <v>2</v>
+      </c>
+      <c r="L97" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>4.41452723857231</v>
+      </c>
+      <c r="M97" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.126218</v>
+      </c>
+      <c r="N97" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>135.84375</v>
+      </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>3</v>
       </c>
-      <c r="C98" t="s">
-        <v>15</v>
+      <c r="C98">
+        <v>4.2830994508846802E-2</v>
       </c>
       <c r="D98">
         <v>16171728896</v>
@@ -9282,13 +13674,28 @@
       <c r="G98" s="16">
         <v>12104940</v>
       </c>
+      <c r="K98" s="2">
+        <v>3</v>
+      </c>
+      <c r="L98" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>4.2830994508846798</v>
+      </c>
+      <c r="M98" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.104939999999999</v>
+      </c>
+      <c r="N98" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>159.8359375</v>
+      </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>4</v>
       </c>
-      <c r="C99" t="s">
-        <v>16</v>
+      <c r="C99">
+        <v>5.3797857934260701E-2</v>
       </c>
       <c r="D99">
         <v>16151252992</v>
@@ -9303,13 +13710,28 @@
       <c r="G99" s="16">
         <v>12050825</v>
       </c>
+      <c r="K99" s="3">
+        <v>4</v>
+      </c>
+      <c r="L99" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>5.3797857934260698</v>
+      </c>
+      <c r="M99" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.050825</v>
+      </c>
+      <c r="N99" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>234.171875</v>
+      </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>5</v>
       </c>
-      <c r="C100" t="s">
-        <v>17</v>
+      <c r="C100">
+        <v>3.125E-2</v>
       </c>
       <c r="D100">
         <v>16191029248</v>
@@ -9324,13 +13746,28 @@
       <c r="G100" s="16">
         <v>12132151</v>
       </c>
+      <c r="K100" s="2">
+        <v>5</v>
+      </c>
+      <c r="L100" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>3.125</v>
+      </c>
+      <c r="M100" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.132151</v>
+      </c>
+      <c r="N100" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>160.49609375</v>
+      </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>6</v>
       </c>
-      <c r="C101" t="s">
-        <v>18</v>
+      <c r="C101">
+        <v>2.3939934765216199E-2</v>
       </c>
       <c r="D101">
         <v>16179949568</v>
@@ -9345,13 +13782,28 @@
       <c r="G101" s="16">
         <v>12172336</v>
       </c>
+      <c r="K101" s="3">
+        <v>6</v>
+      </c>
+      <c r="L101" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.39399347652162</v>
+      </c>
+      <c r="M101" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.172336</v>
+      </c>
+      <c r="N101" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>162.26171875</v>
+      </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>7</v>
       </c>
-      <c r="C102" t="s">
-        <v>19</v>
+      <c r="C102">
+        <v>2.78820705360989E-2</v>
       </c>
       <c r="D102">
         <v>16169590784</v>
@@ -9366,13 +13818,28 @@
       <c r="G102" s="16">
         <v>12053261</v>
       </c>
+      <c r="K102" s="2">
+        <v>7</v>
+      </c>
+      <c r="L102" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.7882070536098902</v>
+      </c>
+      <c r="M102" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.053260999999999</v>
+      </c>
+      <c r="N102" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>131.86328125</v>
+      </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>8</v>
       </c>
-      <c r="C103" t="s">
-        <v>22</v>
+      <c r="C103">
+        <v>2.0347943689678499E-2</v>
       </c>
       <c r="D103">
         <v>16132874240</v>
@@ -9384,16 +13851,31 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>185868288</v>
       </c>
-      <c r="G103" t="s">
-        <v>21</v>
+      <c r="G103" s="16">
+        <v>12095738</v>
+      </c>
+      <c r="K103" s="3">
+        <v>8</v>
+      </c>
+      <c r="L103" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.0347943689678498</v>
+      </c>
+      <c r="M103" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.095738000000001</v>
+      </c>
+      <c r="N103" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>177.2578125</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>9</v>
       </c>
-      <c r="C104" t="s">
-        <v>24</v>
+      <c r="C104">
+        <v>3.5655007069527199E-2</v>
       </c>
       <c r="D104">
         <v>16147640320</v>
@@ -9405,16 +13887,31 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>165638144</v>
       </c>
-      <c r="G104" t="s">
-        <v>23</v>
+      <c r="G104" s="16">
+        <v>12139102</v>
+      </c>
+      <c r="K104" s="2">
+        <v>9</v>
+      </c>
+      <c r="L104" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>3.56550070695272</v>
+      </c>
+      <c r="M104" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.139101999999999</v>
+      </c>
+      <c r="N104" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>157.96484375</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>10</v>
       </c>
-      <c r="C105" t="s">
-        <v>25</v>
+      <c r="C105">
+        <v>2.8852702619032802E-2</v>
       </c>
       <c r="D105">
         <v>16137093120</v>
@@ -9426,16 +13923,31 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>171810816</v>
       </c>
-      <c r="G105" t="s">
-        <v>26</v>
+      <c r="G105" s="16">
+        <v>12661537</v>
+      </c>
+      <c r="K105" s="3">
+        <v>10</v>
+      </c>
+      <c r="L105" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.8852702619032802</v>
+      </c>
+      <c r="M105" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.661536999999999</v>
+      </c>
+      <c r="N105" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>163.8515625</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>11</v>
       </c>
-      <c r="C106" t="s">
-        <v>27</v>
+      <c r="C106">
+        <v>5.5406668744156999E-2</v>
       </c>
       <c r="D106">
         <v>16164528128</v>
@@ -9447,16 +13959,31 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>129667072</v>
       </c>
-      <c r="G106" t="s">
-        <v>28</v>
+      <c r="G106" s="16">
+        <v>12400420</v>
+      </c>
+      <c r="K106" s="2">
+        <v>11</v>
+      </c>
+      <c r="L106" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>5.5406668744156997</v>
+      </c>
+      <c r="M106" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.40042</v>
+      </c>
+      <c r="N106" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>123.66015625</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>12</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
+      <c r="C107">
+        <v>2.5202852225227401E-2</v>
       </c>
       <c r="D107">
         <v>16115073024</v>
@@ -9468,93 +13995,1079 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>205893632</v>
       </c>
-      <c r="G107" t="s">
-        <v>29</v>
+      <c r="G107" s="16">
+        <v>12438353</v>
+      </c>
+      <c r="K107" s="3">
+        <v>12</v>
+      </c>
+      <c r="L107" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.5202852225227401</v>
+      </c>
+      <c r="M107" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.438352999999999</v>
+      </c>
+      <c r="N107" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>196.35546875</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>13</v>
       </c>
+      <c r="C108">
+        <v>4.1936689930209298E-2</v>
+      </c>
+      <c r="D108">
+        <v>16138072064</v>
+      </c>
+      <c r="E108">
+        <v>16306577408</v>
+      </c>
       <c r="F108">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>168505344</v>
+      </c>
+      <c r="G108" s="16">
+        <v>12621905</v>
+      </c>
+      <c r="K108" s="2">
+        <v>13</v>
+      </c>
+      <c r="L108" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>4.1936689930209301</v>
+      </c>
+      <c r="M108" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.621905</v>
+      </c>
+      <c r="N108" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>160.69921875</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>14</v>
       </c>
+      <c r="C109">
+        <v>2.1029330381848399E-2</v>
+      </c>
+      <c r="D109">
+        <v>16129187840</v>
+      </c>
+      <c r="E109">
+        <v>16304959488</v>
+      </c>
       <c r="F109">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>175771648</v>
+      </c>
+      <c r="G109" s="16">
+        <v>12482345</v>
+      </c>
+      <c r="K109" s="3">
+        <v>14</v>
+      </c>
+      <c r="L109" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.1029330381848399</v>
+      </c>
+      <c r="M109" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.482345</v>
+      </c>
+      <c r="N109" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>167.62890625</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>15</v>
       </c>
+      <c r="C110">
+        <v>2.5801695539992599E-2</v>
+      </c>
+      <c r="D110">
+        <v>16124268544</v>
+      </c>
+      <c r="E110">
+        <v>16297988096</v>
+      </c>
       <c r="F110">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>173719552</v>
+      </c>
+      <c r="G110" s="16">
+        <v>12423661</v>
+      </c>
+      <c r="K110" s="2">
+        <v>15</v>
+      </c>
+      <c r="L110" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.58016955399926</v>
+      </c>
+      <c r="M110" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.423660999999999</v>
+      </c>
+      <c r="N110" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>165.671875</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>16</v>
       </c>
+      <c r="C111">
+        <v>2.4135601547626302E-2</v>
+      </c>
+      <c r="D111">
+        <v>16114499584</v>
+      </c>
+      <c r="E111">
+        <v>16293650432</v>
+      </c>
       <c r="F111">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>179150848</v>
+      </c>
+      <c r="G111" s="16">
+        <v>12244723</v>
+      </c>
+      <c r="K111" s="3">
+        <v>16</v>
+      </c>
+      <c r="L111" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.4135601547626302</v>
+      </c>
+      <c r="M111" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.244723</v>
+      </c>
+      <c r="N111" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>170.8515625</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>17</v>
       </c>
+      <c r="C112">
+        <v>2.6287855135810199E-2</v>
+      </c>
+      <c r="D112">
+        <v>16123473920</v>
+      </c>
+      <c r="E112">
+        <v>16295546880</v>
+      </c>
       <c r="F112">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>172072960</v>
+      </c>
+      <c r="G112" s="16">
+        <v>12418507</v>
+      </c>
+      <c r="K112" s="2">
+        <v>17</v>
+      </c>
+      <c r="L112" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.6287855135810201</v>
+      </c>
+      <c r="M112" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.418507</v>
+      </c>
+      <c r="N112" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>164.1015625</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>18</v>
       </c>
+      <c r="C113">
+        <v>2.2390354924032699E-2</v>
+      </c>
+      <c r="D113">
+        <v>16116338688</v>
+      </c>
+      <c r="E113">
+        <v>16291307520</v>
+      </c>
       <c r="F113">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>174968832</v>
+      </c>
+      <c r="G113" s="16">
+        <v>12365284</v>
+      </c>
+      <c r="K113" s="3">
+        <v>18</v>
+      </c>
+      <c r="L113" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.23903549240327</v>
+      </c>
+      <c r="M113" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.365284000000001</v>
+      </c>
+      <c r="N113" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>166.86328125</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>19</v>
       </c>
+      <c r="C114">
+        <v>2.8088506453595601E-2</v>
+      </c>
+      <c r="D114">
+        <v>16122720256</v>
+      </c>
+      <c r="E114">
+        <v>16306343936</v>
+      </c>
       <c r="F114">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>183623680</v>
+      </c>
+      <c r="G114" s="16">
+        <v>12403503</v>
+      </c>
+      <c r="K114" s="2">
+        <v>19</v>
+      </c>
+      <c r="L114" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>2.8088506453595601</v>
+      </c>
+      <c r="M114" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.403503000000001</v>
+      </c>
+      <c r="N114" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>175.1171875</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>20</v>
       </c>
+      <c r="C115">
+        <v>3.9372481992430701E-2</v>
+      </c>
+      <c r="D115">
+        <v>16928837632</v>
+      </c>
+      <c r="E115">
+        <v>17093115904</v>
+      </c>
       <c r="F115">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
-        <v>0</v>
+        <v>164278272</v>
+      </c>
+      <c r="G115" s="16">
+        <v>19386008</v>
+      </c>
+      <c r="K115" s="15">
+        <v>20</v>
+      </c>
+      <c r="L115" s="2">
+        <f>Tabla57[[#This Row],[CPU]]*100</f>
+        <v>3.9372481992430699</v>
+      </c>
+      <c r="M115" s="18">
+        <f>Tabla57[[#This Row],[TIME/ms]]/1000000</f>
+        <v>19.386008</v>
+      </c>
+      <c r="N115" s="2">
+        <f>Tabla57[[#This Row],[RAM USED]]/1048576</f>
+        <v>156.66796875</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M118" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N118" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>6.7239263803680893E-2</v>
+      </c>
+      <c r="D119">
+        <v>16806141952</v>
+      </c>
+      <c r="E119">
+        <v>17092104192</v>
+      </c>
+      <c r="F119">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>285962240</v>
+      </c>
+      <c r="G119" s="16">
+        <v>16028259</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1</v>
+      </c>
+      <c r="L119" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>6.7239263803680895</v>
+      </c>
+      <c r="M119" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>16.028258999999998</v>
+      </c>
+      <c r="N119" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>272.71484375</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>7.6081612586037406E-2</v>
+      </c>
+      <c r="D120" s="17">
+        <v>16831057920</v>
+      </c>
+      <c r="E120">
+        <v>17092673536</v>
+      </c>
+      <c r="F120">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>261615616</v>
+      </c>
+      <c r="G120" s="16">
+        <v>15822021</v>
+      </c>
+      <c r="K120" s="3">
+        <v>2</v>
+      </c>
+      <c r="L120" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>7.6081612586037402</v>
+      </c>
+      <c r="M120" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.822020999999999</v>
+      </c>
+      <c r="N120" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>249.49609375</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>8.9394405164463606E-2</v>
+      </c>
+      <c r="D121">
+        <v>16868646912</v>
+      </c>
+      <c r="E121">
+        <v>17109372928</v>
+      </c>
+      <c r="F121">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>240726016</v>
+      </c>
+      <c r="G121" s="16">
+        <v>15933604</v>
+      </c>
+      <c r="K121" s="2">
+        <v>3</v>
+      </c>
+      <c r="L121" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>8.9394405164463606</v>
+      </c>
+      <c r="M121" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.933604000000001</v>
+      </c>
+      <c r="N121" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>229.57421875</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>8.7498441979309394E-2</v>
+      </c>
+      <c r="D122">
+        <v>16846880768</v>
+      </c>
+      <c r="E122">
+        <v>17125756928</v>
+      </c>
+      <c r="F122">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>278876160</v>
+      </c>
+      <c r="G122" s="16">
+        <v>15958666</v>
+      </c>
+      <c r="K122" s="3">
+        <v>4</v>
+      </c>
+      <c r="L122" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>8.7498441979309387</v>
+      </c>
+      <c r="M122" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.958665999999999</v>
+      </c>
+      <c r="N122" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>265.95703125</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>8.0710501713929503E-2</v>
+      </c>
+      <c r="D123">
+        <v>16857190400</v>
+      </c>
+      <c r="E123" s="17">
+        <v>17105375232</v>
+      </c>
+      <c r="F123">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>248184832</v>
+      </c>
+      <c r="G123" s="16">
+        <v>15982647</v>
+      </c>
+      <c r="K123" s="2">
+        <v>5</v>
+      </c>
+      <c r="L123" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>8.071050171392951</v>
+      </c>
+      <c r="M123" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.982647</v>
+      </c>
+      <c r="N123" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>236.6875</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>7.8860090897924104E-2</v>
+      </c>
+      <c r="D124">
+        <v>16843087872</v>
+      </c>
+      <c r="E124">
+        <v>17101553664</v>
+      </c>
+      <c r="F124">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>258465792</v>
+      </c>
+      <c r="G124" s="16">
+        <v>16015894</v>
+      </c>
+      <c r="K124" s="3">
+        <v>6</v>
+      </c>
+      <c r="L124" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>7.8860090897924104</v>
+      </c>
+      <c r="M124" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>16.015893999999999</v>
+      </c>
+      <c r="N124" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>246.4921875</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>4.3218984384605898E-2</v>
+      </c>
+      <c r="D125">
+        <v>16827691008</v>
+      </c>
+      <c r="E125">
+        <v>17123979264</v>
+      </c>
+      <c r="F125">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>296288256</v>
+      </c>
+      <c r="G125" s="16">
+        <v>15738066</v>
+      </c>
+      <c r="K125" s="2">
+        <v>7</v>
+      </c>
+      <c r="L125" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>4.3218984384605896</v>
+      </c>
+      <c r="M125" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.738066</v>
+      </c>
+      <c r="N125" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>282.5625</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>7.1186857810865603E-2</v>
+      </c>
+      <c r="D126">
+        <v>16854020096</v>
+      </c>
+      <c r="E126">
+        <v>17130065920</v>
+      </c>
+      <c r="F126">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>276045824</v>
+      </c>
+      <c r="G126" s="16">
+        <v>15761586</v>
+      </c>
+      <c r="K126" s="3">
+        <v>8</v>
+      </c>
+      <c r="L126" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>7.11868578108656</v>
+      </c>
+      <c r="M126" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.761585999999999</v>
+      </c>
+      <c r="N126" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>263.2578125</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>6.7944464921980502E-2</v>
+      </c>
+      <c r="D127">
+        <v>16860405760</v>
+      </c>
+      <c r="E127">
+        <v>17118998528</v>
+      </c>
+      <c r="F127">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>258592768</v>
+      </c>
+      <c r="G127" s="16">
+        <v>15888481</v>
+      </c>
+      <c r="K127" s="2">
+        <v>9</v>
+      </c>
+      <c r="L127" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>6.7944464921980501</v>
+      </c>
+      <c r="M127" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.888481000000001</v>
+      </c>
+      <c r="N127" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>246.61328125</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>4.4075277386133697E-2</v>
+      </c>
+      <c r="D128">
+        <v>16873332736</v>
+      </c>
+      <c r="E128" s="17">
+        <v>17136140288</v>
+      </c>
+      <c r="F128">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>262807552</v>
+      </c>
+      <c r="G128" s="16">
+        <v>15635262</v>
+      </c>
+      <c r="K128" s="3">
+        <v>10</v>
+      </c>
+      <c r="L128" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>4.4075277386133696</v>
+      </c>
+      <c r="M128" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.635262000000001</v>
+      </c>
+      <c r="N128" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>250.6328125</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>6.5270784723075001E-2</v>
+      </c>
+      <c r="D129" s="17">
+        <v>16788295680</v>
+      </c>
+      <c r="E129" s="17">
+        <v>17048842240</v>
+      </c>
+      <c r="F129">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>260546560</v>
+      </c>
+      <c r="G129" s="16">
+        <v>15736737</v>
+      </c>
+      <c r="K129" s="2">
+        <v>11</v>
+      </c>
+      <c r="L129" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>6.5270784723075002</v>
+      </c>
+      <c r="M129" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.736737</v>
+      </c>
+      <c r="N129" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>248.4765625</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>5.4943702701039702E-2</v>
+      </c>
+      <c r="D130">
+        <v>16789094400</v>
+      </c>
+      <c r="E130">
+        <v>17064529920</v>
+      </c>
+      <c r="F130">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>275435520</v>
+      </c>
+      <c r="G130" s="16">
+        <v>15668773</v>
+      </c>
+      <c r="K130" s="3">
+        <v>12</v>
+      </c>
+      <c r="L130" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>5.4943702701039703</v>
+      </c>
+      <c r="M130" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.668773</v>
+      </c>
+      <c r="N130" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>262.67578125</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>2.8864459866117999E-2</v>
+      </c>
+      <c r="D131">
+        <v>16800202752</v>
+      </c>
+      <c r="E131">
+        <v>17079709696</v>
+      </c>
+      <c r="F131">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>279506944</v>
+      </c>
+      <c r="G131" s="16">
+        <v>15591545</v>
+      </c>
+      <c r="K131" s="2">
+        <v>13</v>
+      </c>
+      <c r="L131" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>2.8864459866118</v>
+      </c>
+      <c r="M131" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.591545</v>
+      </c>
+      <c r="N131" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>266.55859375</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>3.8048902195608698E-2</v>
+      </c>
+      <c r="D132">
+        <v>16800321536</v>
+      </c>
+      <c r="E132">
+        <v>17068019712</v>
+      </c>
+      <c r="F132">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>267698176</v>
+      </c>
+      <c r="G132" s="16">
+        <v>16166370</v>
+      </c>
+      <c r="K132" s="3">
+        <v>14</v>
+      </c>
+      <c r="L132" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>3.8048902195608698</v>
+      </c>
+      <c r="M132" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>16.166370000000001</v>
+      </c>
+      <c r="N132" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>255.296875</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>4.20815329701296E-2</v>
+      </c>
+      <c r="D133">
+        <v>16929636352</v>
+      </c>
+      <c r="E133">
+        <v>17219088384</v>
+      </c>
+      <c r="F133">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>289452032</v>
+      </c>
+      <c r="G133" s="16">
+        <v>15933722</v>
+      </c>
+      <c r="K133" s="2">
+        <v>15</v>
+      </c>
+      <c r="L133" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>4.2081532970129603</v>
+      </c>
+      <c r="M133" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.933721999999999</v>
+      </c>
+      <c r="N133" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>276.04296875</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>3.5637215611320001E-2</v>
+      </c>
+      <c r="D134">
+        <v>16947339264</v>
+      </c>
+      <c r="E134">
+        <v>17235787776</v>
+      </c>
+      <c r="F134">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>288448512</v>
+      </c>
+      <c r="G134" s="16">
+        <v>15944933</v>
+      </c>
+      <c r="K134" s="3">
+        <v>16</v>
+      </c>
+      <c r="L134" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>3.5637215611320001</v>
+      </c>
+      <c r="M134" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.944933000000001</v>
+      </c>
+      <c r="N134" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>275.0859375</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>5.5403181568842601E-2</v>
+      </c>
+      <c r="D135">
+        <v>16962551808</v>
+      </c>
+      <c r="E135">
+        <v>17237475328</v>
+      </c>
+      <c r="F135">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>274923520</v>
+      </c>
+      <c r="G135" s="16">
+        <v>15919359</v>
+      </c>
+      <c r="K135" s="2">
+        <v>17</v>
+      </c>
+      <c r="L135" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>5.5403181568842603</v>
+      </c>
+      <c r="M135" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.919359</v>
+      </c>
+      <c r="N135" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>262.1875</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>4.6749999999999903E-2</v>
+      </c>
+      <c r="D136">
+        <v>16963633152</v>
+      </c>
+      <c r="E136">
+        <v>17251377152</v>
+      </c>
+      <c r="F136">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>287744000</v>
+      </c>
+      <c r="G136" s="16">
+        <v>15799184</v>
+      </c>
+      <c r="K136" s="3">
+        <v>18</v>
+      </c>
+      <c r="L136" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>4.6749999999999901</v>
+      </c>
+      <c r="M136" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.799184</v>
+      </c>
+      <c r="N136" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>274.4140625</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>4.71471656305779E-2</v>
+      </c>
+      <c r="D137">
+        <v>17017237504</v>
+      </c>
+      <c r="E137">
+        <v>17295695872</v>
+      </c>
+      <c r="F137">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>278458368</v>
+      </c>
+      <c r="G137" s="16">
+        <v>15718822</v>
+      </c>
+      <c r="K137" s="2">
+        <v>19</v>
+      </c>
+      <c r="L137" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>4.7147165630577899</v>
+      </c>
+      <c r="M137" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>15.718821999999999</v>
+      </c>
+      <c r="N137" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>265.55859375</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>4.9453280318091403E-2</v>
+      </c>
+      <c r="D138">
+        <v>16992215040</v>
+      </c>
+      <c r="E138">
+        <v>17249329152</v>
+      </c>
+      <c r="F138">
+        <f>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</f>
+        <v>257114112</v>
+      </c>
+      <c r="G138" s="16">
+        <v>16044606</v>
+      </c>
+      <c r="K138" s="15">
+        <v>20</v>
+      </c>
+      <c r="L138" s="2">
+        <f>Tabla578[[#This Row],[CPU %]]*100</f>
+        <v>4.9453280318091402</v>
+      </c>
+      <c r="M138" s="18">
+        <f>Tabla578[[#This Row],[TIME/ms]]/1000000</f>
+        <v>16.044606000000002</v>
+      </c>
+      <c r="N138" s="2">
+        <f>Tabla578[[#This Row],[RAM USED]]/1048576</f>
+        <v>245.203125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="9">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tablasResultados.xlsx
+++ b/tablasResultados.xlsx
@@ -292,7 +292,145 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -591,40 +729,10 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -10113,10 +10221,22 @@
     <tableColumn id="3" name="CPU %2"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="8" name="Columna1" dataDxfId="39">
+    <tableColumn id="8" name="Columna1" dataDxfId="46">
       <calculatedColumnFormula>Tabla1[[#This Row],[RAM final]]-Tabla1[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="time Ejec"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="K72:M92" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="K72:M92"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="#" dataDxfId="6"/>
+    <tableColumn id="2" name="CPU GHz" dataDxfId="5"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10127,7 +10247,7 @@
   <autoFilter ref="K4:N24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ejecución"/>
-    <tableColumn id="8" name="RAM" dataDxfId="38"/>
+    <tableColumn id="8" name="RAM" dataDxfId="45"/>
     <tableColumn id="9" name="CPU %"/>
     <tableColumn id="6" name="Time"/>
   </tableColumns>
@@ -10136,20 +10256,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
   <autoFilter ref="K26:N46"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="33"/>
-    <tableColumn id="2" name="RAM USED" dataDxfId="32"/>
-    <tableColumn id="3" name="CPU %" dataDxfId="31"/>
-    <tableColumn id="4" name="TIME/s" dataDxfId="30"/>
+    <tableColumn id="1" name="#" dataDxfId="40"/>
+    <tableColumn id="2" name="RAM USED" dataDxfId="39"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="38"/>
+    <tableColumn id="4" name="TIME/s" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="B49:H69"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -10167,7 +10287,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="B72:H92"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -10185,14 +10305,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="30">
   <autoFilter ref="B95:G115"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
     <tableColumn id="3" name="CPU"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="6" name="RAM USED" dataDxfId="20">
+    <tableColumn id="6" name="RAM USED" dataDxfId="29">
       <calculatedColumnFormula>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="TIME/ms"/>
@@ -10202,14 +10322,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla578" displayName="Tabla578" ref="B118:G138" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla578" displayName="Tabla578" ref="B118:G138" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
   <autoFilter ref="B118:G138"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
     <tableColumn id="3" name="CPU %"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="6" name="RAM USED" dataDxfId="8">
+    <tableColumn id="6" name="RAM USED" dataDxfId="17">
       <calculatedColumnFormula>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="TIME/ms"/>
@@ -10219,17 +10339,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="K95:N115" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="K95:N115" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
   <autoFilter ref="K95:N115"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="12"/>
-    <tableColumn id="2" name="CPU %" dataDxfId="11">
+    <tableColumn id="1" name="#" dataDxfId="21"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="20">
       <calculatedColumnFormula>Tabla57[[#This Row],[CPU]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TIME/S" dataDxfId="10">
+    <tableColumn id="4" name="TIME/S" dataDxfId="19">
       <calculatedColumnFormula>Tabla57[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RAM USED" dataDxfId="9">
+    <tableColumn id="5" name="RAM USED" dataDxfId="18">
       <calculatedColumnFormula>Tabla57[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10238,17 +10358,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="K118:N138" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="K118:N138" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
   <autoFilter ref="K118:N138"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="3"/>
-    <tableColumn id="2" name="CPU %" dataDxfId="2">
+    <tableColumn id="1" name="#" dataDxfId="12"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="11">
       <calculatedColumnFormula>Tabla578[[#This Row],[CPU %]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TIME/S" dataDxfId="1">
+    <tableColumn id="4" name="TIME/S" dataDxfId="10">
       <calculatedColumnFormula>Tabla578[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RAM USED" dataDxfId="0">
+    <tableColumn id="5" name="RAM USED" dataDxfId="9">
       <calculatedColumnFormula>Tabla578[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10640,8 +10760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H93" workbookViewId="0">
-      <selection activeCell="X113" sqref="X113"/>
+    <sheetView tabSelected="1" topLeftCell="K98" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12857,7 +12977,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="14" t="s">
         <v>10</v>
@@ -12880,13 +12999,13 @@
       <c r="H72" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13517,7 +13636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>20</v>
       </c>
@@ -13540,13 +13659,13 @@
       <c r="H92">
         <v>12</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="15">
         <v>20</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="15">
         <v>3.13</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="15">
         <v>5</v>
       </c>
     </row>
@@ -13599,7 +13718,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>228159488</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96">
         <v>12179225</v>
       </c>
       <c r="K96" s="2">
@@ -13635,7 +13754,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>142442496</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97">
         <v>12126218</v>
       </c>
       <c r="K97" s="3">
@@ -13671,7 +13790,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>167600128</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98">
         <v>12104940</v>
       </c>
       <c r="K98" s="2">
@@ -13707,7 +13826,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>245547008</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99">
         <v>12050825</v>
       </c>
       <c r="K99" s="3">
@@ -13736,14 +13855,14 @@
       <c r="D100">
         <v>16191029248</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100">
         <v>16359321600</v>
       </c>
       <c r="F100">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>168292352</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100">
         <v>12132151</v>
       </c>
       <c r="K100" s="2">
@@ -13779,7 +13898,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>170143744</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101">
         <v>12172336</v>
       </c>
       <c r="K101" s="3">
@@ -13815,7 +13934,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>138268672</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102">
         <v>12053261</v>
       </c>
       <c r="K102" s="2">
@@ -13851,7 +13970,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>185868288</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103">
         <v>12095738</v>
       </c>
       <c r="K103" s="3">
@@ -13887,7 +14006,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>165638144</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104">
         <v>12139102</v>
       </c>
       <c r="K104" s="2">
@@ -13916,14 +14035,14 @@
       <c r="D105">
         <v>16137093120</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105">
         <v>16308903936</v>
       </c>
       <c r="F105">
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>171810816</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105">
         <v>12661537</v>
       </c>
       <c r="K105" s="3">
@@ -13959,7 +14078,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>129667072</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106">
         <v>12400420</v>
       </c>
       <c r="K106" s="2">
@@ -13995,7 +14114,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>205893632</v>
       </c>
-      <c r="G107" s="16">
+      <c r="G107">
         <v>12438353</v>
       </c>
       <c r="K107" s="3">
@@ -14031,7 +14150,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>168505344</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G108">
         <v>12621905</v>
       </c>
       <c r="K108" s="2">
@@ -14067,7 +14186,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>175771648</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109">
         <v>12482345</v>
       </c>
       <c r="K109" s="3">
@@ -14103,7 +14222,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>173719552</v>
       </c>
-      <c r="G110" s="16">
+      <c r="G110">
         <v>12423661</v>
       </c>
       <c r="K110" s="2">
@@ -14139,7 +14258,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>179150848</v>
       </c>
-      <c r="G111" s="16">
+      <c r="G111">
         <v>12244723</v>
       </c>
       <c r="K111" s="3">
@@ -14175,7 +14294,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>172072960</v>
       </c>
-      <c r="G112" s="16">
+      <c r="G112">
         <v>12418507</v>
       </c>
       <c r="K112" s="2">
@@ -14211,7 +14330,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>174968832</v>
       </c>
-      <c r="G113" s="16">
+      <c r="G113">
         <v>12365284</v>
       </c>
       <c r="K113" s="3">
@@ -14247,7 +14366,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>183623680</v>
       </c>
-      <c r="G114" s="16">
+      <c r="G114">
         <v>12403503</v>
       </c>
       <c r="K114" s="2">
@@ -14283,7 +14402,7 @@
         <f>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</f>
         <v>164278272</v>
       </c>
-      <c r="G115" s="16">
+      <c r="G115">
         <v>19386008</v>
       </c>
       <c r="K115" s="15">
@@ -15058,7 +15177,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -15068,6 +15187,7 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tablasResultados.xlsx
+++ b/tablasResultados.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
   <si>
     <t>RAM</t>
   </si>
@@ -78,13 +78,19 @@
   <si>
     <t>TIME/S</t>
   </si>
+  <si>
+    <t>Headless</t>
+  </si>
+  <si>
+    <t>TIME/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -287,12 +293,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="72">
     <dxf>
       <font>
         <b/>
@@ -315,6 +325,556 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -416,101 +976,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
@@ -537,168 +1002,10 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -733,6 +1040,76 @@
           <color theme="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1746,6 +2123,1349 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PlayWrigth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Headful</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$167:$L$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.9129737069497601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2584698780337495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1196875576603604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.49829160713176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4284288654649702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7076167076166993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7244452639990095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2680623718705295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9978867549257302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5373339155386399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6513051080304599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4825697211155395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1947247848430393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8816283796267799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.96138224082984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3375092114959495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1673819742489302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1082743771147303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8858174573527595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3031290342410999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-184E-48BC-A6F5-DEC19BB407C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIME/S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$167:$M$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.002421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.019726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.154755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.902549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.990513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.755876000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.852633000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.132534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.767773999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.987565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.719996999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.039725000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.705109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.5405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.976675999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.938280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.748417999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.600040999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.069845000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.706488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-184E-48BC-A6F5-DEC19BB407C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="665882015"/>
+        <c:axId val="665877855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="665882015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665877855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665877855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665882015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PlayWrigth Headless</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RAM USED</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM USED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$143:$N$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>251.18359375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>239.9453125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.78125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218.96875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.0390625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243.4140625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.78515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.24609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229.328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220.77734375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.10546875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>224.21875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240.94140625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>266.0546875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>227.4921875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>224.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>236.03125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>224.4609375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>227.796875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>234.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AC1-44E8-B5B2-D30D1360FBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="665877023"/>
+        <c:axId val="665886591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="665877023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665886591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665886591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665877023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PlayWrigth Headful</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RAM USED</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM USED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$167:$N$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>241.18359375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216.3828125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214.16796875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209.3828125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226.94140625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>219.01171875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.60546875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224.55078125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202.1328125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>218.30078125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>211.9921875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223.140625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>223.3984375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>230.24609375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>203.27734375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>214.5078125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238.49609375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>214.34765625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>231.8359375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAB4-4344-AFC8-4044749724CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="621954255"/>
+        <c:axId val="621955503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="621954255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621955503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="621955503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621954255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5379,7 +7099,632 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PlayWrigth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Headless</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$143:$L$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.85613399162551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1396675762837902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8180701431116002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05432407118326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4533366627130198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8348909657320802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5377869005411497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.20145123601033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1185679535956998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8771670970121601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0127638684339697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1112287475867202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2825322391559197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3264200873899901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7948654037886298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.07734530938124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0423306466498499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8442110527631801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66340790875477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.45216578373325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DFB-4636-9E4C-B7A6EFE2D954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIME/S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$143:$M$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.739750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.664362000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.494046000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.633398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.635211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.68723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.557402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.766510999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.919893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.818360999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.486443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.856386000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.821581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.602852</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.555149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.497301999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.712766999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.575578999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.759262</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.388757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DFB-4636-9E4C-B7A6EFE2D954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="664067631"/>
+        <c:axId val="664062223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="664067631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664062223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664062223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664067631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5699,6 +8044,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6215,6 +8600,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9247,6 +13141,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9991,6 +14388,126 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161364</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251011</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>233083</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10221,7 +14738,7 @@
     <tableColumn id="3" name="CPU %2"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="8" name="Columna1" dataDxfId="46">
+    <tableColumn id="8" name="Columna1" dataDxfId="71">
       <calculatedColumnFormula>Tabla1[[#This Row],[RAM final]]-Tabla1[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="time Ejec"/>
@@ -10231,12 +14748,84 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="K72:M92" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="K72:M92" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
   <autoFilter ref="K72:M92"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="6"/>
-    <tableColumn id="2" name="CPU GHz" dataDxfId="5"/>
-    <tableColumn id="3" name="CPU %" dataDxfId="4"/>
+    <tableColumn id="1" name="#" dataDxfId="27"/>
+    <tableColumn id="2" name="CPU GHz" dataDxfId="26"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla57812" displayName="Tabla57812" ref="B142:G162" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="B142:G162"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="3" name="CPU %"/>
+    <tableColumn id="4" name="RAM Inicial"/>
+    <tableColumn id="5" name="RAM final"/>
+    <tableColumn id="6" name="RAM USED" dataDxfId="18">
+      <calculatedColumnFormula>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="TIME/ms"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla5781213" displayName="Tabla5781213" ref="B166:G186" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="B166:G186"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="15"/>
+    <tableColumn id="4" name="RAM Inicial" dataDxfId="14"/>
+    <tableColumn id="5" name="RAM final" dataDxfId="12"/>
+    <tableColumn id="6" name="RAM USED" dataDxfId="13">
+      <calculatedColumnFormula>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="TIME/"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla14" displayName="Tabla14" ref="K142:N162" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="11" tableBorderDxfId="17">
+  <autoFilter ref="K142:N162"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="9">
+      <calculatedColumnFormula>Tabla57812[[#This Row],[CPU %]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="TIME/S" dataDxfId="8">
+      <calculatedColumnFormula>Tabla57812[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="RAM USED" dataDxfId="7">
+      <calculatedColumnFormula>Tabla57812[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla15" displayName="Tabla15" ref="K166:N186" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="16">
+  <autoFilter ref="K166:N186"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="3">
+      <calculatedColumnFormula>Tabla5781213[[#This Row],[CPU %]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="TIME/S" dataDxfId="2">
+      <calculatedColumnFormula>Tabla5781213[[#This Row],[TIME/]]/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="RAM USED" dataDxfId="1">
+      <calculatedColumnFormula>Tabla5781213[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10247,7 +14836,7 @@
   <autoFilter ref="K4:N24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ejecución"/>
-    <tableColumn id="8" name="RAM" dataDxfId="45"/>
+    <tableColumn id="8" name="RAM" dataDxfId="70"/>
     <tableColumn id="9" name="CPU %"/>
     <tableColumn id="6" name="Time"/>
   </tableColumns>
@@ -10256,20 +14845,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="K26:N46" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="K26:N46"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="40"/>
-    <tableColumn id="2" name="RAM USED" dataDxfId="39"/>
-    <tableColumn id="3" name="CPU %" dataDxfId="38"/>
-    <tableColumn id="4" name="TIME/s" dataDxfId="37"/>
+    <tableColumn id="1" name="#" dataDxfId="65"/>
+    <tableColumn id="2" name="RAM USED" dataDxfId="64"/>
+    <tableColumn id="3" name="CPU %" dataDxfId="63"/>
+    <tableColumn id="4" name="TIME/s" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B49:H69" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="B49:H69"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -10287,7 +14876,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B72:H92" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="B72:H92"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#"/>
@@ -10305,14 +14894,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla57" displayName="Tabla57" ref="B95:G115" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="B95:G115"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
     <tableColumn id="3" name="CPU"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="6" name="RAM USED" dataDxfId="29">
+    <tableColumn id="6" name="RAM USED" dataDxfId="52">
       <calculatedColumnFormula>Tabla57[[#This Row],[RAM final]]-Tabla57[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="TIME/ms"/>
@@ -10322,14 +14911,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla578" displayName="Tabla578" ref="B118:G138" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla578" displayName="Tabla578" ref="B118:G138" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="B118:G138"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
     <tableColumn id="3" name="CPU %"/>
     <tableColumn id="4" name="RAM Inicial"/>
     <tableColumn id="5" name="RAM final"/>
-    <tableColumn id="6" name="RAM USED" dataDxfId="17">
+    <tableColumn id="6" name="RAM USED" dataDxfId="48">
       <calculatedColumnFormula>Tabla578[[#This Row],[RAM final]]-Tabla578[[#This Row],[RAM Inicial]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="TIME/ms"/>
@@ -10339,17 +14928,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="K95:N115" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="K95:N115" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="K95:N115"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="21"/>
-    <tableColumn id="2" name="CPU %" dataDxfId="20">
+    <tableColumn id="1" name="#" dataDxfId="43"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="42">
       <calculatedColumnFormula>Tabla57[[#This Row],[CPU]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TIME/S" dataDxfId="19">
+    <tableColumn id="4" name="TIME/S" dataDxfId="41">
       <calculatedColumnFormula>Tabla57[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RAM USED" dataDxfId="18">
+    <tableColumn id="5" name="RAM USED" dataDxfId="40">
       <calculatedColumnFormula>Tabla57[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10358,17 +14947,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="K118:N138" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla810" displayName="Tabla810" ref="K118:N138" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
   <autoFilter ref="K118:N138"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="12"/>
-    <tableColumn id="2" name="CPU %" dataDxfId="11">
+    <tableColumn id="1" name="#" dataDxfId="35"/>
+    <tableColumn id="2" name="CPU %" dataDxfId="34">
       <calculatedColumnFormula>Tabla578[[#This Row],[CPU %]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TIME/S" dataDxfId="10">
+    <tableColumn id="4" name="TIME/S" dataDxfId="33">
       <calculatedColumnFormula>Tabla578[[#This Row],[TIME/ms]]/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RAM USED" dataDxfId="9">
+    <tableColumn id="5" name="RAM USED" dataDxfId="32">
       <calculatedColumnFormula>Tabla578[[#This Row],[RAM USED]]/1048576</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10758,10 +15347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N138"/>
+  <dimension ref="B4:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K98" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="F152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA163" sqref="AA163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10771,6 +15360,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -15173,11 +19763,1520 @@
         <v>245.203125</v>
       </c>
     </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M142" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N142" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1.8561339916255099E-2</v>
+      </c>
+      <c r="D143">
+        <v>15144267776</v>
+      </c>
+      <c r="E143" s="17">
+        <v>15407652864</v>
+      </c>
+      <c r="F143">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>263385088</v>
+      </c>
+      <c r="G143" s="16">
+        <v>12739750</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1</v>
+      </c>
+      <c r="L143" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>1.85613399162551</v>
+      </c>
+      <c r="M143" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.739750000000001</v>
+      </c>
+      <c r="N143" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>251.18359375</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>2.1396675762837901E-2</v>
+      </c>
+      <c r="D144" s="17">
+        <v>15139422208</v>
+      </c>
+      <c r="E144">
+        <v>15391023104</v>
+      </c>
+      <c r="F144">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>251600896</v>
+      </c>
+      <c r="G144" s="16">
+        <v>12664362</v>
+      </c>
+      <c r="K144" s="3">
+        <v>2</v>
+      </c>
+      <c r="L144" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.1396675762837902</v>
+      </c>
+      <c r="M144" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.664362000000001</v>
+      </c>
+      <c r="N144" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>239.9453125</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>1.8180701431116001E-2</v>
+      </c>
+      <c r="D145">
+        <v>15119605760</v>
+      </c>
+      <c r="E145">
+        <v>15367888896</v>
+      </c>
+      <c r="F145">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>248283136</v>
+      </c>
+      <c r="G145" s="16">
+        <v>12494046</v>
+      </c>
+      <c r="K145" s="2">
+        <v>3</v>
+      </c>
+      <c r="L145" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>1.8180701431116002</v>
+      </c>
+      <c r="M145" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.494046000000001</v>
+      </c>
+      <c r="N145" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>236.78125</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>2.0543240711832601E-2</v>
+      </c>
+      <c r="D146">
+        <v>15113170944</v>
+      </c>
+      <c r="E146">
+        <v>15342776320</v>
+      </c>
+      <c r="F146">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>229605376</v>
+      </c>
+      <c r="G146" s="16">
+        <v>12633398</v>
+      </c>
+      <c r="K146" s="3">
+        <v>4</v>
+      </c>
+      <c r="L146" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.05432407118326</v>
+      </c>
+      <c r="M146" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.633398</v>
+      </c>
+      <c r="N146" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>218.96875</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>2.4533366627130199E-2</v>
+      </c>
+      <c r="D147">
+        <v>15110299648</v>
+      </c>
+      <c r="E147" s="17">
+        <v>15347318784</v>
+      </c>
+      <c r="F147">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>237019136</v>
+      </c>
+      <c r="G147" s="16">
+        <v>12635211</v>
+      </c>
+      <c r="K147" s="2">
+        <v>5</v>
+      </c>
+      <c r="L147" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.4533366627130198</v>
+      </c>
+      <c r="M147" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.635211</v>
+      </c>
+      <c r="N147" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>226.0390625</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>2.83489096573208E-2</v>
+      </c>
+      <c r="D148" s="17">
+        <v>15118516224</v>
+      </c>
+      <c r="E148">
+        <v>15373754368</v>
+      </c>
+      <c r="F148">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>255238144</v>
+      </c>
+      <c r="G148" s="16">
+        <v>12687230</v>
+      </c>
+      <c r="K148" s="3">
+        <v>6</v>
+      </c>
+      <c r="L148" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.8348909657320802</v>
+      </c>
+      <c r="M148" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.68723</v>
+      </c>
+      <c r="N148" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>243.4140625</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>2.5377869005411498E-2</v>
+      </c>
+      <c r="D149">
+        <v>15108960256</v>
+      </c>
+      <c r="E149">
+        <v>15354101760</v>
+      </c>
+      <c r="F149">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>245141504</v>
+      </c>
+      <c r="G149" s="16">
+        <v>12557402</v>
+      </c>
+      <c r="K149" s="2">
+        <v>7</v>
+      </c>
+      <c r="L149" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.5377869005411497</v>
+      </c>
+      <c r="M149" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.557402</v>
+      </c>
+      <c r="N149" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>233.78515625</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>2.2014512360103301E-2</v>
+      </c>
+      <c r="D150">
+        <v>15102722048</v>
+      </c>
+      <c r="E150">
+        <v>15356735488</v>
+      </c>
+      <c r="F150">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>254013440</v>
+      </c>
+      <c r="G150" s="16">
+        <v>12766511</v>
+      </c>
+      <c r="K150" s="3">
+        <v>8</v>
+      </c>
+      <c r="L150" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.20145123601033</v>
+      </c>
+      <c r="M150" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.766510999999999</v>
+      </c>
+      <c r="N150" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>242.24609375</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>3.1185679535956998E-2</v>
+      </c>
+      <c r="D151">
+        <v>15095119872</v>
+      </c>
+      <c r="E151">
+        <v>15335587840</v>
+      </c>
+      <c r="F151">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>240467968</v>
+      </c>
+      <c r="G151" s="16">
+        <v>12919893</v>
+      </c>
+      <c r="K151" s="2">
+        <v>9</v>
+      </c>
+      <c r="L151" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>3.1185679535956998</v>
+      </c>
+      <c r="M151" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.919893</v>
+      </c>
+      <c r="N151" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>229.328125</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>2.87716709701216E-2</v>
+      </c>
+      <c r="D152">
+        <v>15094775808</v>
+      </c>
+      <c r="E152" s="17">
+        <v>15326277632</v>
+      </c>
+      <c r="F152">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>231501824</v>
+      </c>
+      <c r="G152" s="16">
+        <v>12818361</v>
+      </c>
+      <c r="K152" s="3">
+        <v>10</v>
+      </c>
+      <c r="L152" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.8771670970121601</v>
+      </c>
+      <c r="M152" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.818360999999999</v>
+      </c>
+      <c r="N152" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>220.77734375</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>2.0127638684339699E-2</v>
+      </c>
+      <c r="D153" s="17">
+        <v>15072505856</v>
+      </c>
+      <c r="E153" s="17">
+        <v>15335809024</v>
+      </c>
+      <c r="F153">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>263303168</v>
+      </c>
+      <c r="G153" s="16">
+        <v>12486443</v>
+      </c>
+      <c r="K153" s="2">
+        <v>11</v>
+      </c>
+      <c r="L153" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.0127638684339697</v>
+      </c>
+      <c r="M153" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.486443</v>
+      </c>
+      <c r="N153" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>251.10546875</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>2.11122874758672E-2</v>
+      </c>
+      <c r="D154">
+        <v>15065124864</v>
+      </c>
+      <c r="E154">
+        <v>15300235264</v>
+      </c>
+      <c r="F154">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>235110400</v>
+      </c>
+      <c r="G154" s="16">
+        <v>12856386</v>
+      </c>
+      <c r="K154" s="3">
+        <v>12</v>
+      </c>
+      <c r="L154" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.1112287475867202</v>
+      </c>
+      <c r="M154" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.856386000000001</v>
+      </c>
+      <c r="N154" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>224.21875</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>3.2825322391559199E-2</v>
+      </c>
+      <c r="D155">
+        <v>15070543872</v>
+      </c>
+      <c r="E155">
+        <v>15323189248</v>
+      </c>
+      <c r="F155">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>252645376</v>
+      </c>
+      <c r="G155" s="16">
+        <v>12821581</v>
+      </c>
+      <c r="K155" s="2">
+        <v>13</v>
+      </c>
+      <c r="L155" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>3.2825322391559197</v>
+      </c>
+      <c r="M155" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.821581</v>
+      </c>
+      <c r="N155" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>240.94140625</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>4.32642008738999E-2</v>
+      </c>
+      <c r="D156">
+        <v>15062433792</v>
+      </c>
+      <c r="E156">
+        <v>15341412352</v>
+      </c>
+      <c r="F156">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>278978560</v>
+      </c>
+      <c r="G156" s="16">
+        <v>12602852</v>
+      </c>
+      <c r="K156" s="3">
+        <v>14</v>
+      </c>
+      <c r="L156" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>4.3264200873899901</v>
+      </c>
+      <c r="M156" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.602852</v>
+      </c>
+      <c r="N156" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>266.0546875</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>3.7948654037886297E-2</v>
+      </c>
+      <c r="D157">
+        <v>15084761088</v>
+      </c>
+      <c r="E157" s="17">
+        <v>15323303936</v>
+      </c>
+      <c r="F157">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>238542848</v>
+      </c>
+      <c r="G157" s="16">
+        <v>12555149</v>
+      </c>
+      <c r="K157" s="2">
+        <v>15</v>
+      </c>
+      <c r="L157" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>3.7948654037886298</v>
+      </c>
+      <c r="M157" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.555149</v>
+      </c>
+      <c r="N157" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>227.4921875</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158">
+        <v>5.0773453093812398E-2</v>
+      </c>
+      <c r="D158" s="17">
+        <v>15079120896</v>
+      </c>
+      <c r="E158">
+        <v>15314395136</v>
+      </c>
+      <c r="F158">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>235274240</v>
+      </c>
+      <c r="G158" s="16">
+        <v>12497302</v>
+      </c>
+      <c r="K158" s="3">
+        <v>16</v>
+      </c>
+      <c r="L158" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>5.07734530938124</v>
+      </c>
+      <c r="M158" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.497301999999999</v>
+      </c>
+      <c r="N158" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>224.375</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>4.0423306466498499E-2</v>
+      </c>
+      <c r="D159" s="17">
+        <v>15079399424</v>
+      </c>
+      <c r="E159" s="17">
+        <v>15326896128</v>
+      </c>
+      <c r="F159">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>247496704</v>
+      </c>
+      <c r="G159" s="16">
+        <v>12712767</v>
+      </c>
+      <c r="K159" s="2">
+        <v>17</v>
+      </c>
+      <c r="L159" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>4.0423306466498499</v>
+      </c>
+      <c r="M159" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.712766999999999</v>
+      </c>
+      <c r="N159" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>236.03125</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>18</v>
+      </c>
+      <c r="C160">
+        <v>1.8442110527631801E-2</v>
+      </c>
+      <c r="D160" s="17">
+        <v>15067873280</v>
+      </c>
+      <c r="E160" s="17">
+        <v>15303237632</v>
+      </c>
+      <c r="F160">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>235364352</v>
+      </c>
+      <c r="G160" s="16">
+        <v>12575579</v>
+      </c>
+      <c r="K160" s="3">
+        <v>18</v>
+      </c>
+      <c r="L160" s="3">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>1.8442110527631801</v>
+      </c>
+      <c r="M160" s="3">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.575578999999999</v>
+      </c>
+      <c r="N160" s="3">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>224.4609375</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>2.66340790875477E-2</v>
+      </c>
+      <c r="D161" s="17">
+        <v>15063101440</v>
+      </c>
+      <c r="E161" s="17">
+        <v>15301963776</v>
+      </c>
+      <c r="F161">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>238862336</v>
+      </c>
+      <c r="G161" s="16">
+        <v>12759262</v>
+      </c>
+      <c r="K161" s="2">
+        <v>19</v>
+      </c>
+      <c r="L161" s="2">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>2.66340790875477</v>
+      </c>
+      <c r="M161" s="2">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.759262</v>
+      </c>
+      <c r="N161" s="2">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>227.796875</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>20</v>
+      </c>
+      <c r="C162">
+        <v>1.4521657837332501E-2</v>
+      </c>
+      <c r="D162" s="17">
+        <v>15054368768</v>
+      </c>
+      <c r="E162" s="17">
+        <v>15299801088</v>
+      </c>
+      <c r="F162">
+        <f>Tabla57812[[#This Row],[RAM final]]-Tabla57812[[#This Row],[RAM Inicial]]</f>
+        <v>245432320</v>
+      </c>
+      <c r="G162" s="16">
+        <v>12388757</v>
+      </c>
+      <c r="K162" s="15">
+        <v>20</v>
+      </c>
+      <c r="L162" s="15">
+        <f>Tabla57812[[#This Row],[CPU %]]*100</f>
+        <v>1.45216578373325</v>
+      </c>
+      <c r="M162" s="15">
+        <f>Tabla57812[[#This Row],[TIME/ms]]/1000000</f>
+        <v>12.388757</v>
+      </c>
+      <c r="N162" s="15">
+        <f>Tabla57812[[#This Row],[RAM USED]]/1048576</f>
+        <v>234.0625</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L166" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M166" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N166" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3">
+        <v>4.9129737069497602E-2</v>
+      </c>
+      <c r="D167" s="3">
+        <v>15269937152</v>
+      </c>
+      <c r="E167" s="3">
+        <v>15522836480</v>
+      </c>
+      <c r="F167">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>252899328</v>
+      </c>
+      <c r="G167" s="16">
+        <v>12002421</v>
+      </c>
+      <c r="K167" s="2">
+        <v>1</v>
+      </c>
+      <c r="L167" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>4.9129737069497601</v>
+      </c>
+      <c r="M167" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>12.002421</v>
+      </c>
+      <c r="N167" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>241.18359375</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" s="3">
+        <v>6.2584698780337497E-2</v>
+      </c>
+      <c r="D168" s="20">
+        <v>15331999744</v>
+      </c>
+      <c r="E168" s="3">
+        <v>15558893568</v>
+      </c>
+      <c r="F168">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>226893824</v>
+      </c>
+      <c r="G168" s="16">
+        <v>12019726</v>
+      </c>
+      <c r="K168" s="3">
+        <v>2</v>
+      </c>
+      <c r="L168" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.2584698780337495</v>
+      </c>
+      <c r="M168" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>12.019726</v>
+      </c>
+      <c r="N168" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>216.3828125</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" s="3">
+        <v>6.1196875576603603E-2</v>
+      </c>
+      <c r="D169" s="3">
+        <v>15320403968</v>
+      </c>
+      <c r="E169" s="3">
+        <v>15544975360</v>
+      </c>
+      <c r="F169">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>224571392</v>
+      </c>
+      <c r="G169" s="16">
+        <v>12154755</v>
+      </c>
+      <c r="K169" s="2">
+        <v>3</v>
+      </c>
+      <c r="L169" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.1196875576603604</v>
+      </c>
+      <c r="M169" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>12.154755</v>
+      </c>
+      <c r="N169" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>214.16796875</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170" s="3">
+        <v>7.4982916071317601E-2</v>
+      </c>
+      <c r="D170" s="3">
+        <v>15330369536</v>
+      </c>
+      <c r="E170" s="3">
+        <v>15535579136</v>
+      </c>
+      <c r="F170">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>205209600</v>
+      </c>
+      <c r="G170" s="16">
+        <v>11902549</v>
+      </c>
+      <c r="K170" s="3">
+        <v>4</v>
+      </c>
+      <c r="L170" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>7.49829160713176</v>
+      </c>
+      <c r="M170" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.902549</v>
+      </c>
+      <c r="N170" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>195.703125</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171" s="3">
+        <v>7.4284288654649699E-2</v>
+      </c>
+      <c r="D171" s="3">
+        <v>15320547328</v>
+      </c>
+      <c r="E171" s="20">
+        <v>15540101120</v>
+      </c>
+      <c r="F171">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>219553792</v>
+      </c>
+      <c r="G171" s="16">
+        <v>11990513</v>
+      </c>
+      <c r="K171" s="2">
+        <v>5</v>
+      </c>
+      <c r="L171" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>7.4284288654649702</v>
+      </c>
+      <c r="M171" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.990513</v>
+      </c>
+      <c r="N171" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>209.3828125</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172" s="3">
+        <v>6.7076167076166995E-2</v>
+      </c>
+      <c r="D172" s="3">
+        <v>15319015424</v>
+      </c>
+      <c r="E172" s="20">
+        <v>15556980736</v>
+      </c>
+      <c r="F172">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>237965312</v>
+      </c>
+      <c r="G172" s="16">
+        <v>11755876</v>
+      </c>
+      <c r="K172" s="3">
+        <v>6</v>
+      </c>
+      <c r="L172" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.7076167076166993</v>
+      </c>
+      <c r="M172" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.755876000000001</v>
+      </c>
+      <c r="N172" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>226.94140625</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>6.7244452639990099E-2</v>
+      </c>
+      <c r="D173" s="20">
+        <v>15325667328</v>
+      </c>
+      <c r="E173" s="3">
+        <v>15555317760</v>
+      </c>
+      <c r="F173">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>229650432</v>
+      </c>
+      <c r="G173" s="16">
+        <v>11852633</v>
+      </c>
+      <c r="K173" s="2">
+        <v>7</v>
+      </c>
+      <c r="L173" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.7244452639990095</v>
+      </c>
+      <c r="M173" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.852633000000001</v>
+      </c>
+      <c r="N173" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>219.01171875</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174" s="3">
+        <v>5.2680623718705299E-2</v>
+      </c>
+      <c r="D174" s="20">
+        <v>15311716352</v>
+      </c>
+      <c r="E174" s="3">
+        <v>15541989376</v>
+      </c>
+      <c r="F174">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>230273024</v>
+      </c>
+      <c r="G174" s="16">
+        <v>12132534</v>
+      </c>
+      <c r="K174" s="3">
+        <v>8</v>
+      </c>
+      <c r="L174" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>5.2680623718705295</v>
+      </c>
+      <c r="M174" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>12.132534</v>
+      </c>
+      <c r="N174" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>219.60546875</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>9</v>
+      </c>
+      <c r="C175" s="3">
+        <v>5.9978867549257298E-2</v>
+      </c>
+      <c r="D175" s="20">
+        <v>15301582848</v>
+      </c>
+      <c r="E175" s="20">
+        <v>15537041408</v>
+      </c>
+      <c r="F175">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>235458560</v>
+      </c>
+      <c r="G175" s="16">
+        <v>11767774</v>
+      </c>
+      <c r="K175" s="2">
+        <v>9</v>
+      </c>
+      <c r="L175" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>5.9978867549257302</v>
+      </c>
+      <c r="M175" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.767773999999999</v>
+      </c>
+      <c r="N175" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>224.55078125</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176" s="3">
+        <v>6.5373339155386401E-2</v>
+      </c>
+      <c r="D176" s="20">
+        <v>15314849792</v>
+      </c>
+      <c r="E176" s="20">
+        <v>15526801408</v>
+      </c>
+      <c r="F176">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>211951616</v>
+      </c>
+      <c r="G176" s="16">
+        <v>11987565</v>
+      </c>
+      <c r="K176" s="3">
+        <v>10</v>
+      </c>
+      <c r="L176" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.5373339155386399</v>
+      </c>
+      <c r="M176" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.987565</v>
+      </c>
+      <c r="N176" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>202.1328125</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>11</v>
+      </c>
+      <c r="C177" s="3">
+        <v>5.6513051080304598E-2</v>
+      </c>
+      <c r="D177" s="20">
+        <v>15294660608</v>
+      </c>
+      <c r="E177" s="20">
+        <v>15523565568</v>
+      </c>
+      <c r="F177">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>228904960</v>
+      </c>
+      <c r="G177" s="16">
+        <v>11719997</v>
+      </c>
+      <c r="K177" s="2">
+        <v>11</v>
+      </c>
+      <c r="L177" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>5.6513051080304599</v>
+      </c>
+      <c r="M177" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.719996999999999</v>
+      </c>
+      <c r="N177" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>218.30078125</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>12</v>
+      </c>
+      <c r="C178" s="3">
+        <v>7.4825697211155395E-2</v>
+      </c>
+      <c r="D178" s="3">
+        <v>15299432448</v>
+      </c>
+      <c r="E178" s="20">
+        <v>15521722368</v>
+      </c>
+      <c r="F178">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>222289920</v>
+      </c>
+      <c r="G178" s="16">
+        <v>13039725</v>
+      </c>
+      <c r="K178" s="3">
+        <v>12</v>
+      </c>
+      <c r="L178" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>7.4825697211155395</v>
+      </c>
+      <c r="M178" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>13.039725000000001</v>
+      </c>
+      <c r="N178" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>211.9921875</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>13</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5.1947247848430397E-2</v>
+      </c>
+      <c r="D179" s="20">
+        <v>15296208896</v>
+      </c>
+      <c r="E179" s="20">
+        <v>15530188800</v>
+      </c>
+      <c r="F179">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>233979904</v>
+      </c>
+      <c r="G179" s="16">
+        <v>11705109</v>
+      </c>
+      <c r="K179" s="2">
+        <v>13</v>
+      </c>
+      <c r="L179" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>5.1947247848430393</v>
+      </c>
+      <c r="M179" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.705109</v>
+      </c>
+      <c r="N179" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>223.140625</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>14</v>
+      </c>
+      <c r="C180" s="3">
+        <v>5.8816283796267799E-2</v>
+      </c>
+      <c r="D180" s="20">
+        <v>15300812800</v>
+      </c>
+      <c r="E180" s="20">
+        <v>15535063040</v>
+      </c>
+      <c r="F180">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>234250240</v>
+      </c>
+      <c r="G180" s="16">
+        <v>11540500</v>
+      </c>
+      <c r="K180" s="3">
+        <v>14</v>
+      </c>
+      <c r="L180" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>5.8816283796267799</v>
+      </c>
+      <c r="M180" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.5405</v>
+      </c>
+      <c r="N180" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>223.3984375</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>15</v>
+      </c>
+      <c r="C181" s="3">
+        <v>5.9613822408298399E-2</v>
+      </c>
+      <c r="D181" s="20">
+        <v>15294644224</v>
+      </c>
+      <c r="E181" s="20">
+        <v>15536074752</v>
+      </c>
+      <c r="F181">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>241430528</v>
+      </c>
+      <c r="G181" s="16">
+        <v>11976676</v>
+      </c>
+      <c r="K181" s="2">
+        <v>15</v>
+      </c>
+      <c r="L181" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>5.96138224082984</v>
+      </c>
+      <c r="M181" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.976675999999999</v>
+      </c>
+      <c r="N181" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>230.24609375</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182" s="3">
+        <v>6.3375092114959494E-2</v>
+      </c>
+      <c r="D182" s="20">
+        <v>15301419008</v>
+      </c>
+      <c r="E182" s="20">
+        <v>15514570752</v>
+      </c>
+      <c r="F182">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>213151744</v>
+      </c>
+      <c r="G182" s="16">
+        <v>11938280</v>
+      </c>
+      <c r="K182" s="3">
+        <v>16</v>
+      </c>
+      <c r="L182" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.3375092114959495</v>
+      </c>
+      <c r="M182" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.938280000000001</v>
+      </c>
+      <c r="N182" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>203.27734375</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>17</v>
+      </c>
+      <c r="C183" s="3">
+        <v>7.1673819742489306E-2</v>
+      </c>
+      <c r="D183" s="20">
+        <v>15301132288</v>
+      </c>
+      <c r="E183" s="20">
+        <v>15526060032</v>
+      </c>
+      <c r="F183">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>224927744</v>
+      </c>
+      <c r="G183" s="16">
+        <v>11748418</v>
+      </c>
+      <c r="K183" s="2">
+        <v>17</v>
+      </c>
+      <c r="L183" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>7.1673819742489302</v>
+      </c>
+      <c r="M183" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.748417999999999</v>
+      </c>
+      <c r="N183" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>214.5078125</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>18</v>
+      </c>
+      <c r="C184" s="20">
+        <v>8.1082743771147298E-2</v>
+      </c>
+      <c r="D184" s="20">
+        <v>15290515456</v>
+      </c>
+      <c r="E184" s="20">
+        <v>15540596736</v>
+      </c>
+      <c r="F184">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>250081280</v>
+      </c>
+      <c r="G184" s="16">
+        <v>11600041</v>
+      </c>
+      <c r="K184" s="3">
+        <v>18</v>
+      </c>
+      <c r="L184" s="3">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>8.1082743771147303</v>
+      </c>
+      <c r="M184" s="3">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.600040999999999</v>
+      </c>
+      <c r="N184" s="3">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>238.49609375</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>19</v>
+      </c>
+      <c r="C185" s="3">
+        <v>6.8858174573527595E-2</v>
+      </c>
+      <c r="D185" s="20">
+        <v>15303647232</v>
+      </c>
+      <c r="E185" s="20">
+        <v>15528407040</v>
+      </c>
+      <c r="F185">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>224759808</v>
+      </c>
+      <c r="G185" s="16">
+        <v>12069845</v>
+      </c>
+      <c r="K185" s="2">
+        <v>19</v>
+      </c>
+      <c r="L185" s="2">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>6.8858174573527595</v>
+      </c>
+      <c r="M185" s="2">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>12.069845000000001</v>
+      </c>
+      <c r="N185" s="2">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>214.34765625</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="C186" s="3">
+        <v>7.3031290342411001E-2</v>
+      </c>
+      <c r="D186" s="20">
+        <v>15294775296</v>
+      </c>
+      <c r="E186" s="20">
+        <v>15537872896</v>
+      </c>
+      <c r="F186">
+        <f>Tabla5781213[[#This Row],[RAM final]]-Tabla5781213[[#This Row],[RAM Inicial]]</f>
+        <v>243097600</v>
+      </c>
+      <c r="G186" s="19">
+        <v>11706488</v>
+      </c>
+      <c r="K186" s="15">
+        <v>20</v>
+      </c>
+      <c r="L186" s="15">
+        <f>Tabla5781213[[#This Row],[CPU %]]*100</f>
+        <v>7.3031290342410999</v>
+      </c>
+      <c r="M186" s="15">
+        <f>Tabla5781213[[#This Row],[TIME/]]/1000000</f>
+        <v>11.706488</v>
+      </c>
+      <c r="N186" s="15">
+        <f>Tabla5781213[[#This Row],[RAM USED]]/1048576</f>
+        <v>231.8359375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="10">
+  <tableParts count="14">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -15188,6 +21287,10 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>